--- a/Jobs Module .xlsx
+++ b/Jobs Module .xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rlibb\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{127014CD-07C8-4906-A358-90183D6134A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB592AAF-95DC-436D-88AC-492EDDF3274E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Search Jobs" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="327">
   <si>
     <t>Project Name</t>
   </si>
@@ -1133,10 +1133,6 @@
   </si>
   <si>
     <t xml:space="preserve">User is redirected to a separate Knack Search Jobs page instead of the login or sign up for new account page within the original test data page
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In order to sign in or sign up for new account the user must click on apply job within the view jobs page and even then will be redirected to a separate itexps.Knack.com page where the user can click on apply for job to sign in or sign up for a new account 
 </t>
   </si>
   <si>
@@ -1629,6 +1625,19 @@
   <si>
     <t xml:space="preserve">The application submission functionality worked as expected, with all data accurately displayed and the submission process completed without any issues.
 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">In order to sign in or sign up for new account the user must click on apply job within the view jobs page and even then will be redirected to a separate itexps.Knack.com jobs page where the user will have to  click on apply for job to sign in or sign up for a new account within that page 
+</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>The user must be logged into their account to access job listings and submit applications.</t>
+  </si>
+  <si>
+    <t>The Jobs Tab functionality relies on a functioning database to retrieve job postings, an active API for integration with job boards</t>
   </si>
 </sst>
 </file>
@@ -2065,6 +2074,9 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -2103,9 +2115,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -2399,8 +2408,8 @@
   </sheetPr>
   <dimension ref="A1:Z61"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2417,74 +2426,76 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="30"/>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
+      <c r="A1" s="31"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
       <c r="D1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="38" t="s">
+      <c r="E1" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="39"/>
+      <c r="F1" s="40"/>
       <c r="G1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="40">
+      <c r="H1" s="41">
         <v>45589</v>
       </c>
-      <c r="I1" s="39"/>
+      <c r="I1" s="40"/>
     </row>
     <row r="2" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="30"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
+      <c r="A2" s="31"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
       <c r="D2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="41" t="s">
+      <c r="E2" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="42"/>
+      <c r="F2" s="43"/>
       <c r="G2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="43" t="s">
+      <c r="H2" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="42"/>
+      <c r="I2" s="43"/>
     </row>
     <row r="3" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="30"/>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
+      <c r="A3" s="31"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
       <c r="D3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="38" t="s">
+      <c r="E3" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="39"/>
+      <c r="F3" s="40"/>
       <c r="G3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="40">
+      <c r="H3" s="41">
         <v>45597</v>
       </c>
-      <c r="I3" s="39"/>
+      <c r="I3" s="40"/>
     </row>
     <row r="4" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="31"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="33"/>
+      <c r="B4" s="32" t="s">
+        <v>325</v>
+      </c>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="34"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
@@ -2507,14 +2518,16 @@
       <c r="A5" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="34"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="34"/>
-      <c r="I5" s="35"/>
+      <c r="B5" s="35" t="s">
+        <v>326</v>
+      </c>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="36"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
@@ -2537,14 +2550,16 @@
       <c r="A6" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="36"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="36"/>
-      <c r="I6" s="37"/>
+      <c r="B6" s="37" t="s">
+        <v>324</v>
+      </c>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="38"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
@@ -2564,15 +2579,15 @@
       <c r="Z6" s="1"/>
     </row>
     <row r="7" spans="1:26" ht="15" x14ac:dyDescent="0.2">
-      <c r="A7" s="27"/>
-      <c r="B7" s="28"/>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="29"/>
+      <c r="A7" s="28"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="30"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
@@ -4507,60 +4522,60 @@
     </row>
     <row r="2" spans="1:10" ht="220.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>285</v>
+      </c>
+      <c r="B2" s="27" t="s">
         <v>286</v>
       </c>
-      <c r="B2" s="44" t="s">
+      <c r="C2" s="23" t="s">
         <v>287</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="D2" s="20" t="s">
+        <v>294</v>
+      </c>
+      <c r="E2" s="27" t="s">
         <v>288</v>
       </c>
-      <c r="D2" s="20" t="s">
-        <v>295</v>
-      </c>
-      <c r="E2" s="44" t="s">
+      <c r="G2" s="20" t="s">
         <v>289</v>
       </c>
-      <c r="G2" s="20" t="s">
+      <c r="H2" s="20" t="s">
         <v>290</v>
       </c>
-      <c r="H2" s="20" t="s">
+      <c r="I2" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" s="20" t="s">
         <v>291</v>
-      </c>
-      <c r="I2" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="J2" s="20" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="18" t="s">
+        <v>292</v>
+      </c>
+      <c r="B3" s="20" t="s">
         <v>293</v>
       </c>
-      <c r="B3" s="20" t="s">
-        <v>294</v>
-      </c>
       <c r="C3" s="23" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D3" s="20" t="s">
+        <v>295</v>
+      </c>
+      <c r="E3" s="20" t="s">
         <v>296</v>
       </c>
-      <c r="E3" s="20" t="s">
+      <c r="G3" s="20" t="s">
         <v>297</v>
       </c>
-      <c r="G3" s="20" t="s">
+      <c r="H3" s="20" t="s">
+        <v>299</v>
+      </c>
+      <c r="I3" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="J3" s="20" t="s">
         <v>298</v>
-      </c>
-      <c r="H3" s="20" t="s">
-        <v>300</v>
-      </c>
-      <c r="I3" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="J3" s="20" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4579,8 +4594,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{998FFD13-504E-4956-8103-D7E4A2C33F4F}">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4629,7 +4644,7 @@
       <c r="A2" t="s">
         <v>270</v>
       </c>
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="27" t="s">
         <v>280</v>
       </c>
       <c r="C2" s="23" t="s">
@@ -4638,20 +4653,20 @@
       <c r="D2" t="s">
         <v>61</v>
       </c>
-      <c r="E2" s="44" t="s">
+      <c r="E2" s="27" t="s">
         <v>281</v>
       </c>
-      <c r="G2" s="44" t="s">
+      <c r="G2" s="27" t="s">
         <v>282</v>
       </c>
-      <c r="H2" s="44" t="s">
+      <c r="H2" s="27" t="s">
         <v>284</v>
       </c>
-      <c r="I2" s="44" t="s">
+      <c r="I2" s="27" t="s">
         <v>283</v>
       </c>
-      <c r="J2" s="44" t="s">
-        <v>285</v>
+      <c r="J2" s="27" t="s">
+        <v>323</v>
       </c>
     </row>
   </sheetData>
@@ -4716,31 +4731,31 @@
     </row>
     <row r="2" spans="1:10" ht="357" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="18" t="s">
+        <v>300</v>
+      </c>
+      <c r="B2" s="20" t="s">
         <v>301</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="C2" s="23" t="s">
         <v>302</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="D2" s="20" t="s">
+        <v>304</v>
+      </c>
+      <c r="E2" s="20" t="s">
         <v>303</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="G2" s="20" t="s">
         <v>305</v>
       </c>
-      <c r="E2" s="20" t="s">
-        <v>304</v>
-      </c>
-      <c r="G2" s="20" t="s">
+      <c r="H2" s="20" t="s">
         <v>306</v>
       </c>
-      <c r="H2" s="20" t="s">
+      <c r="I2" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" s="20" t="s">
         <v>307</v>
-      </c>
-      <c r="I2" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="J2" s="20" t="s">
-        <v>308</v>
       </c>
     </row>
   </sheetData>
@@ -4755,7 +4770,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B78389AF-81F3-4279-9634-ACEA01AF9BB1}">
   <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B3" workbookViewId="0">
       <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
@@ -4805,60 +4820,60 @@
     </row>
     <row r="3" spans="1:10" ht="348.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="18" t="s">
+        <v>308</v>
+      </c>
+      <c r="B3" s="20" t="s">
         <v>309</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="C3" s="23" t="s">
         <v>310</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="D3" s="18" t="s">
         <v>311</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="E3" s="20" t="s">
         <v>312</v>
       </c>
-      <c r="E3" s="20" t="s">
+      <c r="G3" s="20" t="s">
         <v>313</v>
       </c>
-      <c r="G3" s="20" t="s">
+      <c r="H3" s="20" t="s">
         <v>314</v>
       </c>
-      <c r="H3" s="20" t="s">
+      <c r="I3" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="J3" s="20" t="s">
         <v>315</v>
-      </c>
-      <c r="I3" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="J3" s="20" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="203.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="18" t="s">
+        <v>316</v>
+      </c>
+      <c r="B4" s="20" t="s">
         <v>317</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="C4" s="23" t="s">
         <v>318</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="D4" s="18" t="s">
+        <v>311</v>
+      </c>
+      <c r="E4" s="20" t="s">
         <v>319</v>
       </c>
-      <c r="D4" s="18" t="s">
-        <v>312</v>
-      </c>
-      <c r="E4" s="20" t="s">
+      <c r="G4" s="20" t="s">
         <v>320</v>
       </c>
-      <c r="G4" s="20" t="s">
+      <c r="H4" s="20" t="s">
         <v>321</v>
       </c>
-      <c r="H4" s="20" t="s">
+      <c r="I4" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4" s="20" t="s">
         <v>322</v>
-      </c>
-      <c r="I4" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="J4" s="20" t="s">
-        <v>323</v>
       </c>
     </row>
   </sheetData>
